--- a/scenario/data/analysis_data.xlsx
+++ b/scenario/data/analysis_data.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2395,7 +2395,7 @@
         <v>656240</v>
       </c>
       <c r="J95">
-        <v>8.287532000000001</v>
+        <v>8.287531</v>
       </c>
       <c r="K95">
         <v>2.6</v>
@@ -2836,7 +2836,7 @@
         <v>630830</v>
       </c>
       <c r="J116">
-        <v>7.556713</v>
+        <v>7.556712</v>
       </c>
       <c r="K116">
         <v>-0.7</v>
@@ -2850,7 +2850,7 @@
         <v>3.31</v>
       </c>
       <c r="J117">
-        <v>7.525351</v>
+        <v>7.52535</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>3.22</v>
       </c>
       <c r="J120">
-        <v>7.247758</v>
+        <v>7.247757</v>
       </c>
       <c r="K120">
         <v>0.3</v>
@@ -3025,7 +3025,7 @@
         <v>639110</v>
       </c>
       <c r="J125">
-        <v>6.815491</v>
+        <v>6.815492</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -3088,7 +3088,7 @@
         <v>665000</v>
       </c>
       <c r="J128">
-        <v>6.473072</v>
+        <v>6.473071</v>
       </c>
       <c r="K128">
         <v>1.2</v>
@@ -3151,7 +3151,7 @@
         <v>681230</v>
       </c>
       <c r="J131">
-        <v>6.310287</v>
+        <v>6.310286</v>
       </c>
       <c r="K131">
         <v>1.3</v>
@@ -3214,7 +3214,7 @@
         <v>674290</v>
       </c>
       <c r="J134">
-        <v>6.008305</v>
+        <v>6.008306</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>3.2</v>
       </c>
       <c r="J135">
-        <v>5.867593</v>
+        <v>5.867594</v>
       </c>
       <c r="K135">
         <v>2.3</v>
@@ -3291,7 +3291,7 @@
         <v>3.06</v>
       </c>
       <c r="J138">
-        <v>5.575872</v>
+        <v>5.575873</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -3340,7 +3340,7 @@
         <v>695040</v>
       </c>
       <c r="J140">
-        <v>5.47215</v>
+        <v>5.472149</v>
       </c>
       <c r="K140">
         <v>2.6</v>
@@ -3354,7 +3354,7 @@
         <v>2.21</v>
       </c>
       <c r="J141">
-        <v>5.421908</v>
+        <v>5.421907</v>
       </c>
       <c r="K141">
         <v>2.5</v>
@@ -3368,7 +3368,7 @@
         <v>1.83</v>
       </c>
       <c r="J142">
-        <v>5.365775</v>
+        <v>5.365774</v>
       </c>
       <c r="K142">
         <v>2.8</v>
@@ -3403,7 +3403,7 @@
         <v>703850</v>
       </c>
       <c r="J143">
-        <v>5.301536</v>
+        <v>5.301535</v>
       </c>
       <c r="K143">
         <v>2.8</v>
@@ -3431,7 +3431,7 @@
         <v>1.93</v>
       </c>
       <c r="J145">
-        <v>5.182987</v>
+        <v>5.182988</v>
       </c>
       <c r="K145">
         <v>2.2</v>
@@ -3466,7 +3466,7 @@
         <v>694470</v>
       </c>
       <c r="J146">
-        <v>5.144487</v>
+        <v>5.144488</v>
       </c>
       <c r="K146">
         <v>2.4</v>
@@ -3480,7 +3480,7 @@
         <v>1.85</v>
       </c>
       <c r="J147">
-        <v>5.12285</v>
+        <v>5.122851</v>
       </c>
       <c r="K147">
         <v>2.6</v>
@@ -3494,7 +3494,7 @@
         <v>1.83</v>
       </c>
       <c r="J148">
-        <v>5.118117</v>
+        <v>5.118118</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -3529,7 +3529,7 @@
         <v>685230</v>
       </c>
       <c r="J149">
-        <v>5.118685</v>
+        <v>5.118686</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -3557,7 +3557,7 @@
         <v>1.3</v>
       </c>
       <c r="J151">
-        <v>5.104361</v>
+        <v>5.10436</v>
       </c>
       <c r="K151">
         <v>1.9</v>
@@ -3592,7 +3592,7 @@
         <v>706000</v>
       </c>
       <c r="J152">
-        <v>5.071748</v>
+        <v>5.071747</v>
       </c>
       <c r="K152">
         <v>1.9</v>
@@ -3606,7 +3606,7 @@
         <v>1.34</v>
       </c>
       <c r="J153">
-        <v>5.028981</v>
+        <v>5.028979</v>
       </c>
       <c r="K153">
         <v>2.3</v>
@@ -3620,7 +3620,7 @@
         <v>1.49</v>
       </c>
       <c r="J154">
-        <v>4.996524</v>
+        <v>4.996523</v>
       </c>
       <c r="K154">
         <v>2.2</v>
@@ -3669,7 +3669,7 @@
         <v>1.34</v>
       </c>
       <c r="J156">
-        <v>5.007362</v>
+        <v>5.007363</v>
       </c>
       <c r="K156">
         <v>1.9</v>
@@ -3683,7 +3683,7 @@
         <v>1.3</v>
       </c>
       <c r="J157">
-        <v>5.032611</v>
+        <v>5.032613</v>
       </c>
       <c r="K157">
         <v>2.1</v>
@@ -3718,7 +3718,7 @@
         <v>697990</v>
       </c>
       <c r="J158">
-        <v>5.0542</v>
+        <v>5.054202</v>
       </c>
       <c r="K158">
         <v>1.9</v>
@@ -3732,7 +3732,7 @@
         <v>1.54</v>
       </c>
       <c r="J159">
-        <v>5.062994</v>
+        <v>5.062996</v>
       </c>
       <c r="K159">
         <v>1.8</v>
@@ -3746,7 +3746,7 @@
         <v>1.35</v>
       </c>
       <c r="J160">
-        <v>5.044616</v>
+        <v>5.044618</v>
       </c>
       <c r="K160">
         <v>1.9</v>
@@ -3781,7 +3781,7 @@
         <v>706100</v>
       </c>
       <c r="J161">
-        <v>5.008332</v>
+        <v>5.008333</v>
       </c>
       <c r="K161">
         <v>1.1</v>
@@ -3795,7 +3795,7 @@
         <v>1.29</v>
       </c>
       <c r="J162">
-        <v>4.967177</v>
+        <v>4.967176</v>
       </c>
       <c r="K162">
         <v>1.5</v>
@@ -3809,7 +3809,7 @@
         <v>1.53</v>
       </c>
       <c r="J163">
-        <v>4.928656</v>
+        <v>4.928655</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>728020</v>
       </c>
       <c r="J164">
-        <v>4.897457</v>
+        <v>4.897454</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -3858,7 +3858,7 @@
         <v>1.73</v>
       </c>
       <c r="J165">
-        <v>4.873899</v>
+        <v>4.873895</v>
       </c>
       <c r="K165">
         <v>1.5</v>
@@ -3872,7 +3872,7 @@
         <v>1.89</v>
       </c>
       <c r="J166">
-        <v>4.854294</v>
+        <v>4.854291</v>
       </c>
       <c r="K166">
         <v>1.5</v>
@@ -3907,7 +3907,7 @@
         <v>734370</v>
       </c>
       <c r="J167">
-        <v>4.841621</v>
+        <v>4.841619</v>
       </c>
       <c r="K167">
         <v>1.2</v>
@@ -3921,7 +3921,7 @@
         <v>1.68</v>
       </c>
       <c r="J168">
-        <v>4.841494</v>
+        <v>4.841493</v>
       </c>
       <c r="K168">
         <v>1.6</v>
@@ -3935,7 +3935,7 @@
         <v>1.8</v>
       </c>
       <c r="J169">
-        <v>4.847408</v>
+        <v>4.847409</v>
       </c>
       <c r="K169">
         <v>1.2</v>
@@ -3970,7 +3970,7 @@
         <v>732980</v>
       </c>
       <c r="J170">
-        <v>4.846383</v>
+        <v>4.846386</v>
       </c>
       <c r="K170">
         <v>1.1</v>
@@ -3984,7 +3984,7 @@
         <v>1.56</v>
       </c>
       <c r="J171">
-        <v>4.826516</v>
+        <v>4.82652</v>
       </c>
       <c r="K171">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>1.51</v>
       </c>
       <c r="J172">
-        <v>4.790597</v>
+        <v>4.790601</v>
       </c>
       <c r="K172">
         <v>0.7</v>
@@ -4033,7 +4033,7 @@
         <v>730850</v>
       </c>
       <c r="J173">
-        <v>4.750582</v>
+        <v>4.750586</v>
       </c>
       <c r="K173">
         <v>1.1</v>
@@ -4047,7 +4047,7 @@
         <v>1.33</v>
       </c>
       <c r="J174">
-        <v>4.710755</v>
+        <v>4.710757</v>
       </c>
       <c r="K174">
         <v>0.7</v>
@@ -4096,7 +4096,7 @@
         <v>754130</v>
       </c>
       <c r="J176">
-        <v>4.688393</v>
+        <v>4.688388</v>
       </c>
       <c r="K176">
         <v>0.7</v>
@@ -4110,7 +4110,7 @@
         <v>0.95</v>
       </c>
       <c r="J177">
-        <v>4.699365</v>
+        <v>4.699358</v>
       </c>
       <c r="K177">
         <v>0.8</v>
@@ -4124,7 +4124,7 @@
         <v>0.92</v>
       </c>
       <c r="J178">
-        <v>4.702703</v>
+        <v>4.702695</v>
       </c>
       <c r="K178">
         <v>0.8</v>
@@ -4159,7 +4159,7 @@
         <v>766510</v>
       </c>
       <c r="J179">
-        <v>4.683584</v>
+        <v>4.683577</v>
       </c>
       <c r="K179">
         <v>0.7</v>
@@ -4173,7 +4173,7 @@
         <v>0.72</v>
       </c>
       <c r="J180">
-        <v>4.637943</v>
+        <v>4.637941</v>
       </c>
       <c r="K180">
         <v>0.5</v>
@@ -4187,7 +4187,7 @@
         <v>0.59</v>
       </c>
       <c r="J181">
-        <v>4.575884</v>
+        <v>4.575887</v>
       </c>
       <c r="K181">
         <v>0.1</v>
@@ -4222,7 +4222,7 @@
         <v>754560</v>
       </c>
       <c r="J182">
-        <v>4.517481</v>
+        <v>4.517491</v>
       </c>
       <c r="K182">
         <v>-0.5</v>
@@ -4236,7 +4236,7 @@
         <v>0.3</v>
       </c>
       <c r="J183">
-        <v>4.47544</v>
+        <v>4.475454</v>
       </c>
       <c r="K183">
         <v>-0.2</v>
@@ -4250,7 +4250,7 @@
         <v>0.23</v>
       </c>
       <c r="J184">
-        <v>4.45096</v>
+        <v>4.450976</v>
       </c>
       <c r="K184">
         <v>0.3</v>
@@ -4285,7 +4285,7 @@
         <v>756170</v>
       </c>
       <c r="J185">
-        <v>4.431079</v>
+        <v>4.431096</v>
       </c>
       <c r="K185">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="J186">
-        <v>4.404411</v>
+        <v>4.404423</v>
       </c>
       <c r="K186">
         <v>1.6</v>
@@ -4313,7 +4313,7 @@
         <v>0.79</v>
       </c>
       <c r="J187">
-        <v>4.368108</v>
+        <v>4.368109</v>
       </c>
       <c r="K187">
         <v>1.1</v>
@@ -4348,7 +4348,7 @@
         <v>780410</v>
       </c>
       <c r="J188">
-        <v>4.325712</v>
+        <v>4.325695</v>
       </c>
       <c r="K188">
         <v>1.3</v>
@@ -4362,7 +4362,7 @@
         <v>0.61</v>
       </c>
       <c r="J189">
-        <v>4.290557</v>
+        <v>4.290524</v>
       </c>
       <c r="K189">
         <v>1.1</v>
@@ -4376,7 +4376,7 @@
         <v>0.65</v>
       </c>
       <c r="J190">
-        <v>4.262896</v>
+        <v>4.262853</v>
       </c>
       <c r="K190">
         <v>0.8</v>
@@ -4411,7 +4411,7 @@
         <v>795890</v>
       </c>
       <c r="J191">
-        <v>4.242412</v>
+        <v>4.242369</v>
       </c>
       <c r="K191">
         <v>1.2</v>
@@ -4425,7 +4425,7 @@
         <v>0.52</v>
       </c>
       <c r="J192">
-        <v>4.219032</v>
+        <v>4.219001</v>
       </c>
       <c r="K192">
         <v>0.2</v>
@@ -4439,7 +4439,7 @@
         <v>0.55</v>
       </c>
       <c r="J193">
-        <v>4.184116</v>
+        <v>4.184105</v>
       </c>
       <c r="K193">
         <v>0.2</v>
@@ -4474,7 +4474,7 @@
         <v>781880</v>
       </c>
       <c r="J194">
-        <v>4.138275</v>
+        <v>4.138284</v>
       </c>
       <c r="K194">
         <v>0.4</v>
@@ -4488,7 +4488,7 @@
         <v>0.17</v>
       </c>
       <c r="J195">
-        <v>4.087906</v>
+        <v>4.087926</v>
       </c>
       <c r="K195">
         <v>-0.1</v>
@@ -4502,7 +4502,7 @@
         <v>0.17</v>
       </c>
       <c r="J196">
-        <v>4.044726</v>
+        <v>4.044743</v>
       </c>
       <c r="K196">
         <v>0.1</v>
@@ -4537,7 +4537,7 @@
         <v>792670</v>
       </c>
       <c r="J197">
-        <v>4.012666</v>
+        <v>4.012672</v>
       </c>
       <c r="K197">
         <v>-0.3</v>
@@ -4551,7 +4551,7 @@
         <v>0.13</v>
       </c>
       <c r="J198">
-        <v>3.988052</v>
+        <v>3.988042</v>
       </c>
       <c r="K198">
         <v>-0.1</v>
@@ -4565,7 +4565,7 @@
         <v>-0.02</v>
       </c>
       <c r="J199">
-        <v>3.962483</v>
+        <v>3.962455</v>
       </c>
       <c r="K199">
         <v>0.1</v>
@@ -4600,7 +4600,7 @@
         <v>803160</v>
       </c>
       <c r="J200">
-        <v>3.924231</v>
+        <v>3.924182</v>
       </c>
       <c r="K200">
         <v>0.3</v>
@@ -4614,7 +4614,7 @@
         <v>-0.13</v>
       </c>
       <c r="J201">
-        <v>3.86977</v>
+        <v>3.869699</v>
       </c>
       <c r="K201">
         <v>0.3</v>
@@ -4628,7 +4628,7 @@
         <v>-0.09</v>
       </c>
       <c r="J202">
-        <v>3.808979</v>
+        <v>3.808909</v>
       </c>
       <c r="K202">
         <v>0.6</v>
@@ -4663,7 +4663,7 @@
         <v>817500</v>
       </c>
       <c r="J203">
-        <v>3.749641</v>
+        <v>3.749607</v>
       </c>
       <c r="K203">
         <v>0.7</v>
@@ -4677,7 +4677,7 @@
         <v>0.19</v>
       </c>
       <c r="J204">
-        <v>3.700793</v>
+        <v>3.700822</v>
       </c>
       <c r="K204">
         <v>0.8</v>
@@ -4691,7 +4691,7 @@
         <v>0.25</v>
       </c>
       <c r="J205">
-        <v>3.671186</v>
+        <v>3.671285</v>
       </c>
       <c r="K205">
         <v>1.6</v>
@@ -4726,7 +4726,7 @@
         <v>819940</v>
       </c>
       <c r="J206">
-        <v>3.653906</v>
+        <v>3.654058</v>
       </c>
       <c r="K206">
         <v>1.7</v>
@@ -4740,7 +4740,7 @@
         <v>0.26</v>
       </c>
       <c r="J207">
-        <v>3.639511</v>
+        <v>3.639677</v>
       </c>
       <c r="K207">
         <v>2.1</v>
@@ -4754,7 +4754,7 @@
         <v>0.35</v>
       </c>
       <c r="J208">
-        <v>3.622222</v>
+        <v>3.622364</v>
       </c>
       <c r="K208">
         <v>1.5</v>
@@ -4789,7 +4789,7 @@
         <v>815560</v>
       </c>
       <c r="J209">
-        <v>3.597327</v>
+        <v>3.597419</v>
       </c>
       <c r="K209">
         <v>2</v>
@@ -4803,7 +4803,7 @@
         <v>0.34</v>
       </c>
       <c r="J210">
-        <v>3.565652</v>
+        <v>3.565681</v>
       </c>
       <c r="K210">
         <v>1.3</v>
@@ -4817,7 +4817,7 @@
         <v>0.25</v>
       </c>
       <c r="J211">
-        <v>3.527712</v>
+        <v>3.527683</v>
       </c>
       <c r="K211">
         <v>1.7</v>
@@ -4852,7 +4852,7 @@
         <v>839240</v>
       </c>
       <c r="J212">
-        <v>3.493278</v>
+        <v>3.4932</v>
       </c>
       <c r="K212">
         <v>1.7</v>
@@ -4866,7 +4866,7 @@
         <v>0.35</v>
       </c>
       <c r="J213">
-        <v>3.466356</v>
+        <v>3.46624</v>
       </c>
       <c r="K213">
         <v>1.9</v>
@@ -4880,7 +4880,7 @@
         <v>0.35</v>
       </c>
       <c r="J214">
-        <v>3.443539</v>
+        <v>3.443421</v>
       </c>
       <c r="K214">
         <v>1.9</v>
@@ -4915,7 +4915,7 @@
         <v>858370</v>
       </c>
       <c r="J215">
-        <v>3.418705</v>
+        <v>3.41864</v>
       </c>
       <c r="K215">
         <v>1.5</v>
@@ -4929,7 +4929,7 @@
         <v>0.31</v>
       </c>
       <c r="J216">
-        <v>3.389221</v>
+        <v>3.389265</v>
       </c>
       <c r="K216">
         <v>1.7</v>
@@ -4943,7 +4943,7 @@
         <v>0.3</v>
       </c>
       <c r="J217">
-        <v>3.353625</v>
+        <v>3.353795</v>
       </c>
       <c r="K217">
         <v>1.5</v>
@@ -4978,7 +4978,7 @@
         <v>846160</v>
       </c>
       <c r="J218">
-        <v>3.317839</v>
+        <v>3.318099</v>
       </c>
       <c r="K218">
         <v>1.5</v>
@@ -4992,7 +4992,7 @@
         <v>0.66</v>
       </c>
       <c r="J219">
-        <v>3.283879</v>
+        <v>3.284147</v>
       </c>
       <c r="K219">
         <v>1.2</v>
@@ -5006,7 +5006,7 @@
         <v>0.53</v>
       </c>
       <c r="J220">
-        <v>3.252965</v>
+        <v>3.253152</v>
       </c>
       <c r="K220">
         <v>1.7</v>
@@ -5041,7 +5041,7 @@
         <v>847760</v>
       </c>
       <c r="J221">
-        <v>3.226239</v>
+        <v>3.226263</v>
       </c>
       <c r="K221">
         <v>1.3</v>
@@ -5055,7 +5055,7 @@
         <v>0.45</v>
       </c>
       <c r="J222">
-        <v>3.206151</v>
+        <v>3.206011</v>
       </c>
       <c r="K222">
         <v>2.5</v>
@@ -5069,7 +5069,7 @@
         <v>0.33</v>
       </c>
       <c r="J223">
-        <v>3.189573</v>
+        <v>3.189334</v>
       </c>
       <c r="K223">
         <v>2.1</v>
@@ -5104,7 +5104,7 @@
         <v>857750</v>
       </c>
       <c r="J224">
-        <v>3.17393</v>
+        <v>3.173675</v>
       </c>
       <c r="K224">
         <v>2.2</v>
@@ -5118,7 +5118,7 @@
         <v>0.29</v>
       </c>
       <c r="J225">
-        <v>3.156384</v>
+        <v>3.156177</v>
       </c>
       <c r="K225">
         <v>2.1</v>
@@ -5132,7 +5132,7 @@
         <v>0.37</v>
       </c>
       <c r="J226">
-        <v>3.137946</v>
+        <v>3.137849</v>
       </c>
       <c r="K226">
         <v>2.2</v>
@@ -5167,7 +5167,7 @@
         <v>882360</v>
       </c>
       <c r="J227">
-        <v>3.115304</v>
+        <v>3.115369</v>
       </c>
       <c r="K227">
         <v>2.6</v>
@@ -5181,7 +5181,7 @@
         <v>0.31</v>
       </c>
       <c r="J228">
-        <v>3.091504</v>
+        <v>3.091764</v>
       </c>
       <c r="K228">
         <v>2.2</v>
@@ -5195,7 +5195,7 @@
         <v>0.19</v>
       </c>
       <c r="J229">
-        <v>3.066487</v>
+        <v>3.066908</v>
       </c>
       <c r="K229">
         <v>1.7</v>
@@ -5230,7 +5230,7 @@
         <v>873730</v>
       </c>
       <c r="J230">
-        <v>3.039652</v>
+        <v>3.040145</v>
       </c>
       <c r="K230">
         <v>1.7</v>
@@ -5244,7 +5244,7 @@
         <v>0.06</v>
       </c>
       <c r="J231">
-        <v>3.010079</v>
+        <v>3.01055</v>
       </c>
       <c r="K231">
         <v>1.7</v>
@@ -5258,7 +5258,7 @@
         <v>0.01</v>
       </c>
       <c r="J232">
-        <v>2.974965</v>
+        <v>2.975328</v>
       </c>
       <c r="K232">
         <v>1.4</v>
@@ -5293,7 +5293,7 @@
         <v>866250</v>
       </c>
       <c r="J233">
-        <v>2.934735</v>
+        <v>2.934933</v>
       </c>
       <c r="K233">
         <v>2.1</v>
@@ -5307,7 +5307,7 @@
         <v>-0.13</v>
       </c>
       <c r="J234">
-        <v>2.897472</v>
+        <v>2.897497</v>
       </c>
       <c r="K234">
         <v>1.3</v>
@@ -5321,7 +5321,7 @@
         <v>-0.31</v>
       </c>
       <c r="J235">
-        <v>2.870244</v>
+        <v>2.870112</v>
       </c>
       <c r="K235">
         <v>1.5</v>
@@ -5356,7 +5356,7 @@
         <v>892540</v>
       </c>
       <c r="J236">
-        <v>2.861709</v>
+        <v>2.861491</v>
       </c>
       <c r="K236">
         <v>1.1</v>
@@ -5370,7 +5370,7 @@
         <v>-0.65</v>
       </c>
       <c r="J237">
-        <v>2.873963</v>
+        <v>2.873772</v>
       </c>
       <c r="K237">
         <v>1</v>
@@ -5384,7 +5384,7 @@
         <v>-0.59</v>
       </c>
       <c r="J238">
-        <v>2.901954</v>
+        <v>2.901738</v>
       </c>
       <c r="K238">
         <v>0.9</v>
@@ -5419,7 +5419,7 @@
         <v>904760</v>
       </c>
       <c r="J239">
-        <v>2.947359</v>
+        <v>2.946958</v>
       </c>
       <c r="K239">
         <v>0.9</v>
@@ -5433,7 +5433,7 @@
         <v>-0.35</v>
       </c>
       <c r="J240">
-        <v>3.007735</v>
+        <v>3.007084</v>
       </c>
       <c r="K240">
         <v>1.2</v>
@@ -5447,7 +5447,7 @@
         <v>-0.3</v>
       </c>
       <c r="J241">
-        <v>3.079722</v>
+        <v>3.078829</v>
       </c>
       <c r="K241">
         <v>1.5</v>
@@ -5482,7 +5482,7 @@
         <v>881340</v>
       </c>
       <c r="J242">
-        <v>3.164842</v>
+        <v>3.163787</v>
       </c>
       <c r="K242">
         <v>1.6</v>
@@ -5496,7 +5496,7 @@
         <v>-0.47</v>
       </c>
       <c r="J243">
-        <v>3.270449</v>
+        <v>3.269372</v>
       </c>
       <c r="K243">
         <v>1.7</v>
@@ -5510,7 +5510,7 @@
         <v>-0.54</v>
       </c>
       <c r="J244">
-        <v>3.397667</v>
+        <v>3.396683</v>
       </c>
       <c r="K244">
         <v>1.3</v>
@@ -5545,7 +5545,7 @@
         <v>795170</v>
       </c>
       <c r="J245">
-        <v>3.537975</v>
+        <v>3.537168</v>
       </c>
       <c r="K245">
         <v>0.8</v>
@@ -5559,7 +5559,7 @@
         <v>-0.516</v>
       </c>
       <c r="J246">
-        <v>3.668621</v>
+        <v>3.667926</v>
       </c>
       <c r="K246">
         <v>0.5</v>
@@ -5573,7 +5573,7 @@
         <v>-0.434</v>
       </c>
       <c r="J247">
-        <v>3.772775</v>
+        <v>3.772083</v>
       </c>
       <c r="K247">
         <v>0.8</v>
@@ -5608,7 +5608,7 @@
         <v>871270</v>
       </c>
       <c r="J248">
-        <v>3.835776</v>
+        <v>3.834962</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>-0.522</v>
       </c>
       <c r="J249">
-        <v>3.854002</v>
+        <v>3.852872</v>
       </c>
       <c r="K249">
         <v>-0.1</v>
@@ -5636,7 +5636,7 @@
         <v>-0.524</v>
       </c>
       <c r="J250">
-        <v>3.845019</v>
+        <v>3.843599</v>
       </c>
       <c r="K250">
         <v>-0.4</v>
@@ -5671,7 +5671,7 @@
         <v>902940</v>
       </c>
       <c r="J251">
-        <v>3.829312</v>
+        <v>3.827785</v>
       </c>
       <c r="K251">
         <v>-0.5</v>
@@ -5685,7 +5685,7 @@
         <v>-0.614</v>
       </c>
       <c r="J252">
-        <v>3.822661</v>
+        <v>3.821107</v>
       </c>
       <c r="K252">
         <v>-0.7</v>
@@ -5699,7 +5699,7 @@
         <v>-0.618</v>
       </c>
       <c r="J253">
-        <v>3.837583</v>
+        <v>3.836068</v>
       </c>
       <c r="K253">
         <v>-0.7</v>
@@ -5734,7 +5734,7 @@
         <v>887590</v>
       </c>
       <c r="J254">
-        <v>3.863889</v>
+        <v>3.862475</v>
       </c>
       <c r="K254">
         <v>1.6</v>
@@ -5748,7 +5748,7 @@
         <v>-0.446</v>
       </c>
       <c r="J255">
-        <v>3.878155</v>
+        <v>3.876916</v>
       </c>
       <c r="K255">
         <v>1.6</v>
@@ -5762,7 +5762,7 @@
         <v>-0.364</v>
       </c>
       <c r="J256">
-        <v>3.856537</v>
+        <v>3.855511</v>
       </c>
       <c r="K256">
         <v>2</v>
@@ -5797,7 +5797,7 @@
         <v>896180</v>
       </c>
       <c r="J257">
-        <v>3.796231</v>
+        <v>3.795416</v>
       </c>
       <c r="K257">
         <v>2.1</v>
@@ -5811,7 +5811,7 @@
         <v>-0.223</v>
       </c>
       <c r="J258">
-        <v>3.704493</v>
+        <v>3.703908</v>
       </c>
       <c r="K258">
         <v>2.4</v>
@@ -5825,7 +5825,7 @@
         <v>-0.288</v>
       </c>
       <c r="J259">
-        <v>3.601399</v>
+        <v>3.601108</v>
       </c>
       <c r="K259">
         <v>2.1</v>
@@ -5860,7 +5860,7 @@
         <v>932310</v>
       </c>
       <c r="J260">
-        <v>3.50646</v>
+        <v>3.506639</v>
       </c>
       <c r="K260">
         <v>3.1</v>
@@ -5874,7 +5874,7 @@
         <v>-0.539</v>
       </c>
       <c r="J261">
-        <v>3.441012</v>
+        <v>3.442039</v>
       </c>
       <c r="K261">
         <v>3.4</v>
@@ -5888,7 +5888,7 @@
         <v>-0.363</v>
       </c>
       <c r="J262">
-        <v>3.406752</v>
+        <v>3.408843</v>
       </c>
       <c r="K262">
         <v>4.1</v>
@@ -5923,7 +5923,7 @@
         <v>966260</v>
       </c>
       <c r="J263">
-        <v>3.389756</v>
+        <v>3.392812</v>
       </c>
       <c r="K263">
         <v>4.6</v>
@@ -5937,7 +5937,7 @@
         <v>-0.312</v>
       </c>
       <c r="J264">
-        <v>3.376628</v>
+        <v>3.380243</v>
       </c>
       <c r="K264">
         <v>6</v>
@@ -5951,7 +5951,7 @@
         <v>-0.383</v>
       </c>
       <c r="J265">
-        <v>3.350696</v>
+        <v>3.354358</v>
       </c>
       <c r="K265">
         <v>5.7</v>
@@ -5986,7 +5986,7 @@
         <v>973140</v>
       </c>
       <c r="J266">
-        <v>3.302698</v>
+        <v>3.305923</v>
       </c>
       <c r="K266">
         <v>5.1</v>
@@ -6000,7 +6000,7 @@
         <v>0.15</v>
       </c>
       <c r="J267">
-        <v>3.241429</v>
+        <v>3.243847</v>
       </c>
       <c r="K267">
         <v>5.5</v>
@@ -6014,7 +6014,7 @@
         <v>0.282</v>
       </c>
       <c r="J268">
-        <v>3.179726</v>
+        <v>3.181096</v>
       </c>
       <c r="K268">
         <v>7.6</v>
@@ -6049,7 +6049,7 @@
         <v>976130</v>
       </c>
       <c r="J269">
-        <v>3.131301</v>
+        <v>3.131339</v>
       </c>
       <c r="K269">
         <v>7.8</v>
@@ -6063,7 +6063,7 @@
         <v>0.953</v>
       </c>
       <c r="J270">
-        <v>3.10754</v>
+        <v>3.106304</v>
       </c>
       <c r="K270">
         <v>8.699999999999999</v>
@@ -6077,7 +6077,7 @@
         <v>1.446</v>
       </c>
       <c r="J271">
-        <v>3.110525</v>
+        <v>3.108473</v>
       </c>
       <c r="K271">
         <v>8.199999999999999</v>
@@ -6112,7 +6112,7 @@
         <v>1002380</v>
       </c>
       <c r="J272">
-        <v>3.127674</v>
+        <v>3.125484</v>
       </c>
       <c r="K272">
         <v>8.5</v>
@@ -6126,7 +6126,7 @@
         <v>1.033</v>
       </c>
       <c r="J273">
-        <v>3.144605</v>
+        <v>3.142907</v>
       </c>
       <c r="K273">
         <v>8.800000000000001</v>
@@ -6140,7 +6140,7 @@
         <v>1.796</v>
       </c>
       <c r="J274">
-        <v>3.149527</v>
+        <v>3.148784</v>
       </c>
       <c r="K274">
         <v>10.9</v>
@@ -6175,7 +6175,7 @@
         <v>1037740</v>
       </c>
       <c r="J275">
-        <v>3.139818</v>
+        <v>3.140191</v>
       </c>
       <c r="K275">
         <v>11.6</v>
@@ -6189,7 +6189,7 @@
         <v>2.066</v>
       </c>
       <c r="J276">
-        <v>3.116597</v>
+        <v>3.117758</v>
       </c>
       <c r="K276">
         <v>11.3</v>
@@ -6203,7 +6203,7 @@
         <v>2.085</v>
       </c>
       <c r="J277">
-        <v>3.079777</v>
+        <v>3.08115</v>
       </c>
       <c r="K277">
         <v>9.6</v>
@@ -6238,7 +6238,7 @@
         <v>1043520</v>
       </c>
       <c r="J278">
-        <v>3.040908</v>
+        <v>3.041733</v>
       </c>
       <c r="K278">
         <v>9.199999999999999</v>
@@ -6252,7 +6252,7 @@
         <v>2.37</v>
       </c>
       <c r="J279">
-        <v>3.005729</v>
+        <v>3.005563</v>
       </c>
       <c r="K279">
         <v>9.300000000000001</v>
@@ -6266,7 +6266,7 @@
         <v>2.383</v>
       </c>
       <c r="J280">
-        <v>2.984133</v>
+        <v>2.983273</v>
       </c>
       <c r="K280">
         <v>7.8</v>
@@ -6301,7 +6301,7 @@
         <v>1031880</v>
       </c>
       <c r="J281">
-        <v>2.978736</v>
+        <v>2.977797</v>
       </c>
       <c r="K281">
         <v>7.6</v>
@@ -6315,7 +6315,7 @@
         <v>2.341</v>
       </c>
       <c r="J282">
-        <v>2.98852</v>
+        <v>2.988539</v>
       </c>
       <c r="K282">
         <v>6.3</v>
@@ -6329,7 +6329,7 @@
         <v>2.377</v>
       </c>
       <c r="J283">
-        <v>3.010175</v>
+        <v>3.012249</v>
       </c>
       <c r="K283">
         <v>6.8</v>
@@ -6364,7 +6364,7 @@
         <v>1055500</v>
       </c>
       <c r="J284">
-        <v>3.042113</v>
+        <v>3.047221</v>
       </c>
       <c r="K284">
         <v>6.5</v>
@@ -6378,7 +6378,7 @@
         <v>2.545</v>
       </c>
       <c r="J285">
-        <v>3.078726</v>
+        <v>3.087088</v>
       </c>
       <c r="K285">
         <v>6.4</v>
@@ -6392,7 +6392,7 @@
         <v>2.66</v>
       </c>
       <c r="J286">
-        <v>3.11451</v>
+        <v>3.125355</v>
       </c>
       <c r="K286">
         <v>4.3</v>
@@ -6427,7 +6427,7 @@
         <v>1088410</v>
       </c>
       <c r="J287">
-        <v>3.147177</v>
+        <v>3.159075</v>
       </c>
       <c r="K287">
         <v>3</v>
@@ -6441,7 +6441,7 @@
         <v>2.602</v>
       </c>
       <c r="J288">
-        <v>3.173306</v>
+        <v>3.184563</v>
       </c>
       <c r="K288">
         <v>2.3</v>
@@ -6455,7 +6455,7 @@
         <v>2.101</v>
       </c>
       <c r="J289">
-        <v>3.198166</v>
+        <v>3.207489</v>
       </c>
       <c r="K289">
         <v>3.8</v>
@@ -6490,7 +6490,7 @@
         <v>1071630</v>
       </c>
       <c r="J290">
-        <v>3.227646</v>
+        <v>3.234171</v>
       </c>
       <c r="K290">
         <v>3.1</v>
@@ -6504,7 +6504,7 @@
         <v>2.331</v>
       </c>
       <c r="J291">
-        <v>3.263247</v>
+        <v>3.266702</v>
       </c>
       <c r="K291">
         <v>2.7</v>
@@ -6518,7 +6518,7 @@
         <v>2.349</v>
       </c>
       <c r="J292">
-        <v>3.309103</v>
+        <v>3.309534</v>
       </c>
       <c r="K292">
         <v>2.3</v>
@@ -6553,7 +6553,7 @@
         <v>1063850</v>
       </c>
       <c r="J293">
-        <v>3.359108</v>
+        <v>3.35653</v>
       </c>
       <c r="K293">
         <v>2.4</v>
@@ -6567,7 +6567,7 @@
         <v>2.518</v>
       </c>
       <c r="J294">
-        <v>3.4039</v>
+        <v>3.399816</v>
       </c>
       <c r="K294">
         <v>2.8</v>
@@ -6581,7 +6581,7 @@
         <v>2.484</v>
       </c>
       <c r="J295">
-        <v>3.43333</v>
+        <v>3.429999</v>
       </c>
       <c r="K295">
         <v>2.5</v>
@@ -6616,7 +6616,7 @@
         <v>1083070</v>
       </c>
       <c r="J296">
-        <v>3.444493</v>
+        <v>3.44443</v>
       </c>
       <c r="K296">
         <v>2.6</v>
@@ -6630,7 +6630,7 @@
         <v>2.208</v>
       </c>
       <c r="J297">
-        <v>3.439985</v>
+        <v>3.444457</v>
       </c>
       <c r="K297">
         <v>2</v>
@@ -6644,7 +6644,7 @@
         <v>2.166</v>
       </c>
       <c r="J298">
-        <v>3.430957</v>
+        <v>3.439561</v>
       </c>
       <c r="K298">
         <v>1.8</v>
@@ -6679,7 +6679,7 @@
         <v>1110420</v>
       </c>
       <c r="J299">
-        <v>3.429011</v>
+        <v>3.439789</v>
       </c>
       <c r="K299">
         <v>2.4</v>
@@ -6693,7 +6693,7 @@
         <v>2.305</v>
       </c>
       <c r="J300">
-        <v>3.442129</v>
+        <v>3.452847</v>
       </c>
       <c r="K300">
         <v>2.4</v>
@@ -6707,7 +6707,7 @@
         <v>2.178</v>
       </c>
       <c r="J301">
-        <v>3.477135</v>
+        <v>3.484981</v>
       </c>
       <c r="K301">
         <v>2.8</v>
@@ -6742,10 +6742,73 @@
         <v>1098210</v>
       </c>
       <c r="J302">
-        <v>3.529704</v>
+        <v>3.532793</v>
       </c>
       <c r="K302">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G303">
+        <v>2.405</v>
+      </c>
+      <c r="J303">
+        <v>3.590655</v>
+      </c>
+      <c r="K303">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" s="2">
+        <v>45717</v>
+      </c>
+      <c r="G304">
+        <v>2.741</v>
+      </c>
+      <c r="J304">
+        <v>3.642971</v>
+      </c>
+      <c r="K304">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B305">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="C305">
+        <v>31.6</v>
+      </c>
+      <c r="D305">
+        <v>2.699999999999999</v>
+      </c>
+      <c r="E305">
+        <v>10.6</v>
+      </c>
+      <c r="F305">
+        <v>79.5</v>
+      </c>
+      <c r="G305">
+        <v>2.511</v>
+      </c>
+      <c r="H305">
+        <v>162.0307167235495</v>
+      </c>
+      <c r="I305">
+        <v>1094320</v>
+      </c>
+      <c r="J305">
+        <v>3.685194</v>
+      </c>
+      <c r="K305">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
